--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t xml:space="preserve">Sprint Timeline</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Preprocessing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdulkadir</t>
   </si>
   <si>
     <t xml:space="preserve">Modelling Data</t>
@@ -107,14 +110,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,12 +141,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -321,19 +328,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,14 +431,14 @@
   </sheetPr>
   <dimension ref="B4:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.19"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -496,12 +503,12 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
@@ -512,7 +519,7 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -526,9 +533,11 @@
     </row>
     <row r="10" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -538,7 +547,7 @@
     </row>
     <row r="11" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -552,7 +561,7 @@
     </row>
     <row r="12" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
@@ -566,7 +575,7 @@
     </row>
     <row r="13" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
@@ -580,7 +589,7 @@
     </row>
     <row r="14" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
@@ -594,7 +603,7 @@
     </row>
     <row r="15" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -608,7 +617,7 @@
     </row>
     <row r="16" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
@@ -622,7 +631,7 @@
     </row>
     <row r="17" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -636,7 +645,7 @@
     </row>
     <row r="18" customFormat="false" ht="23.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -650,7 +659,7 @@
     </row>
     <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -662,18 +671,18 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -687,7 +696,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" s="20"/>
     </row>
